--- a/output/ABSOLUTE_23565803000199.xlsx
+++ b/output/ABSOLUTE_23565803000199.xlsx
@@ -1054,10 +1054,10 @@
         <v>44165</v>
       </c>
       <c r="B61">
-        <v>0.7134840099999999</v>
+        <v>0.7152777100000001</v>
       </c>
       <c r="C61">
-        <v>0.009221424964213965</v>
+        <v>0.01027789264024337</v>
       </c>
     </row>
   </sheetData>

--- a/output/ABSOLUTE_23565803000199.xlsx
+++ b/output/ABSOLUTE_23565803000199.xlsx
@@ -14,12 +14,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>ABSOLUTE VERTEX II FUNDO DE INVESTIMENTO EM COTAS DE FUNDOS DE INVESTIMENTO MULTIMERCADO</t>
-  </si>
-  <si>
-    <t>mensal</t>
   </si>
   <si>
     <t>d</t>
@@ -386,678 +383,498 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C61"/>
+  <dimension ref="A1:B61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
+    </row>
+    <row r="2" spans="1:2">
       <c r="A2" s="2">
         <v>42369</v>
       </c>
       <c r="B2">
-        <v>0.002312059999999949</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
       <c r="A3" s="2">
         <v>42400</v>
       </c>
       <c r="B3">
-        <v>0.01158966000000006</v>
-      </c>
-      <c r="C3">
         <v>0.009256199112280594</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:2">
       <c r="A4" s="2">
         <v>42429</v>
       </c>
       <c r="B4">
-        <v>0.0081871899999999</v>
-      </c>
-      <c r="C4">
         <v>-0.003363488314026664</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:2">
       <c r="A5" s="2">
         <v>42460</v>
       </c>
       <c r="B5">
-        <v>-0.008428549999999979</v>
-      </c>
-      <c r="C5">
         <v>-0.01648080848954236</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:2">
       <c r="A6" s="2">
         <v>42490</v>
       </c>
       <c r="B6">
-        <v>0.01636251999999994</v>
-      </c>
-      <c r="C6">
         <v>0.02500179891222154</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:2">
       <c r="A7" s="2">
         <v>42521</v>
       </c>
       <c r="B7">
-        <v>0.02035243999999992</v>
-      </c>
-      <c r="C7">
         <v>0.003925685886173813</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:2">
       <c r="A8" s="2">
         <v>42551</v>
       </c>
       <c r="B8">
-        <v>0.03478939000000003</v>
-      </c>
-      <c r="C8">
         <v>0.01414898365901895</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:2">
       <c r="A9" s="2">
         <v>42582</v>
       </c>
       <c r="B9">
-        <v>0.06665435000000008</v>
-      </c>
-      <c r="C9">
         <v>0.03079366710553533</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:2">
       <c r="A10" s="2">
         <v>42613</v>
       </c>
       <c r="B10">
-        <v>0.07669242000000009</v>
-      </c>
-      <c r="C10">
         <v>0.009410799290322958</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:2">
       <c r="A11" s="2">
         <v>42643</v>
       </c>
       <c r="B11">
-        <v>0.08544971999999995</v>
-      </c>
-      <c r="C11">
         <v>0.008133520620494217</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:2">
       <c r="A12" s="2">
         <v>42674</v>
       </c>
       <c r="B12">
-        <v>0.12473844</v>
-      </c>
-      <c r="C12">
         <v>0.03619579910159265</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:2">
       <c r="A13" s="2">
         <v>42704</v>
       </c>
       <c r="B13">
-        <v>0.1197399100000001</v>
-      </c>
-      <c r="C13">
         <v>-0.004444171037668032</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:2">
       <c r="A14" s="2">
         <v>42735</v>
       </c>
       <c r="B14">
-        <v>0.1315922</v>
-      </c>
-      <c r="C14">
         <v>0.01058485983588819</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:2">
       <c r="A15" s="2">
         <v>42766</v>
       </c>
       <c r="B15">
-        <v>0.1396702299999999</v>
-      </c>
-      <c r="C15">
         <v>0.007138640580944156</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:2">
       <c r="A16" s="2">
         <v>42794</v>
       </c>
       <c r="B16">
-        <v>0.17043264</v>
-      </c>
-      <c r="C16">
         <v>0.02699237831280388</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:2">
       <c r="A17" s="2">
         <v>42825</v>
       </c>
       <c r="B17">
-        <v>0.18128324</v>
-      </c>
-      <c r="C17">
         <v>0.009270589036204591</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:2">
       <c r="A18" s="2">
         <v>42855</v>
       </c>
       <c r="B18">
-        <v>0.18637288</v>
-      </c>
-      <c r="C18">
         <v>0.004308568705334359</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:2">
       <c r="A19" s="2">
         <v>42886</v>
       </c>
       <c r="B19">
-        <v>0.1712481400000001</v>
-      </c>
-      <c r="C19">
         <v>-0.01274872365592161</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:2">
       <c r="A20" s="2">
         <v>42916</v>
       </c>
       <c r="B20">
-        <v>0.1916525099999999</v>
-      </c>
-      <c r="C20">
         <v>0.01742104794292332</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:2">
       <c r="A21" s="2">
         <v>42947</v>
       </c>
       <c r="B21">
-        <v>0.22471723</v>
-      </c>
-      <c r="C21">
         <v>0.02774694780779674</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:2">
       <c r="A22" s="2">
         <v>42978</v>
       </c>
       <c r="B22">
-        <v>0.2588856500000001</v>
-      </c>
-      <c r="C22">
         <v>0.02789902776169817</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:2">
       <c r="A23" s="2">
         <v>43008</v>
       </c>
       <c r="B23">
-        <v>0.31028368</v>
-      </c>
-      <c r="C23">
         <v>0.04082819595250764</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:2">
       <c r="A24" s="2">
         <v>43039</v>
       </c>
       <c r="B24">
-        <v>0.3173133699999999</v>
-      </c>
-      <c r="C24">
         <v>0.005365013780832539</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:2">
       <c r="A25" s="2">
         <v>43069</v>
       </c>
       <c r="B25">
-        <v>0.3215984000000001</v>
-      </c>
-      <c r="C25">
         <v>0.003252855469006777</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:2">
       <c r="A26" s="2">
         <v>43100</v>
       </c>
       <c r="B26">
-        <v>0.3514071299999999</v>
-      </c>
-      <c r="C26">
         <v>0.02255505908602773</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:2">
       <c r="A27" s="2">
         <v>43131</v>
       </c>
       <c r="B27">
-        <v>0.3827029799999999</v>
-      </c>
-      <c r="C27">
         <v>0.02315797312686962</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" spans="1:2">
       <c r="A28" s="2">
         <v>43159</v>
       </c>
       <c r="B28">
-        <v>0.3934899999999999</v>
-      </c>
-      <c r="C28">
         <v>0.007801400702846628</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:2">
       <c r="A29" s="2">
         <v>43190</v>
       </c>
       <c r="B29">
-        <v>0.44409538</v>
-      </c>
-      <c r="C29">
         <v>0.03631556738835595</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
+    <row r="30" spans="1:2">
       <c r="A30" s="2">
         <v>43220</v>
       </c>
       <c r="B30">
-        <v>0.42324725</v>
-      </c>
-      <c r="C30">
         <v>-0.01443680956863114</v>
       </c>
     </row>
-    <row r="31" spans="1:3">
+    <row r="31" spans="1:2">
       <c r="A31" s="2">
         <v>43251</v>
       </c>
       <c r="B31">
-        <v>0.4451285199999999</v>
-      </c>
-      <c r="C31">
         <v>0.01537418744353802</v>
       </c>
     </row>
-    <row r="32" spans="1:3">
+    <row r="32" spans="1:2">
       <c r="A32" s="2">
         <v>43281</v>
       </c>
       <c r="B32">
-        <v>0.46399613</v>
-      </c>
-      <c r="C32">
         <v>0.0130560083334319</v>
       </c>
     </row>
-    <row r="33" spans="1:3">
+    <row r="33" spans="1:2">
       <c r="A33" s="2">
         <v>43312</v>
       </c>
       <c r="B33">
-        <v>0.48676213</v>
-      </c>
-      <c r="C33">
         <v>0.01555058755517336</v>
       </c>
     </row>
-    <row r="34" spans="1:3">
+    <row r="34" spans="1:2">
       <c r="A34" s="2">
         <v>43343</v>
       </c>
       <c r="B34">
-        <v>0.47153815</v>
-      </c>
-      <c r="C34">
         <v>-0.0102396877703631</v>
       </c>
     </row>
-    <row r="35" spans="1:3">
+    <row r="35" spans="1:2">
       <c r="A35" s="2">
         <v>43373</v>
       </c>
       <c r="B35">
-        <v>0.4877594599999999</v>
-      </c>
-      <c r="C35">
         <v>0.01102337034211454</v>
       </c>
     </row>
-    <row r="36" spans="1:3">
+    <row r="36" spans="1:2">
       <c r="A36" s="2">
         <v>43404</v>
       </c>
       <c r="B36">
-        <v>0.5117501099999999</v>
-      </c>
-      <c r="C36">
         <v>0.01612535537162718</v>
       </c>
     </row>
-    <row r="37" spans="1:3">
+    <row r="37" spans="1:2">
       <c r="A37" s="2">
         <v>43434</v>
       </c>
       <c r="B37">
-        <v>0.5151413</v>
-      </c>
-      <c r="C37">
         <v>0.00224322126889076</v>
       </c>
     </row>
-    <row r="38" spans="1:3">
+    <row r="38" spans="1:2">
       <c r="A38" s="2">
         <v>43465</v>
       </c>
       <c r="B38">
-        <v>0.52568656</v>
-      </c>
-      <c r="C38">
         <v>0.006959918523770758</v>
       </c>
     </row>
-    <row r="39" spans="1:3">
+    <row r="39" spans="1:2">
       <c r="A39" s="2">
         <v>43496</v>
       </c>
       <c r="B39">
-        <v>0.5940822800000001</v>
-      </c>
-      <c r="C39">
         <v>0.04482947008460236</v>
       </c>
     </row>
-    <row r="40" spans="1:3">
+    <row r="40" spans="1:2">
       <c r="A40" s="2">
         <v>43524</v>
       </c>
       <c r="B40">
-        <v>0.5719562600000001</v>
-      </c>
-      <c r="C40">
         <v>-0.01388009908748244</v>
       </c>
     </row>
-    <row r="41" spans="1:3">
+    <row r="41" spans="1:2">
       <c r="A41" s="2">
         <v>43555</v>
       </c>
       <c r="B41">
-        <v>0.5524576999999999</v>
-      </c>
-      <c r="C41">
         <v>-0.01240400925659357</v>
       </c>
     </row>
-    <row r="42" spans="1:3">
+    <row r="42" spans="1:2">
       <c r="A42" s="2">
         <v>43585</v>
       </c>
       <c r="B42">
-        <v>0.5715962299999999</v>
-      </c>
-      <c r="C42">
         <v>0.01232789144593127</v>
       </c>
     </row>
-    <row r="43" spans="1:3">
+    <row r="43" spans="1:2">
       <c r="A43" s="2">
         <v>43616</v>
       </c>
       <c r="B43">
-        <v>0.60571737</v>
-      </c>
-      <c r="C43">
         <v>0.02171113632666333</v>
       </c>
     </row>
-    <row r="44" spans="1:3">
+    <row r="44" spans="1:2">
       <c r="A44" s="2">
         <v>43646</v>
       </c>
       <c r="B44">
-        <v>0.61809129</v>
-      </c>
-      <c r="C44">
         <v>0.007706163133802235</v>
       </c>
     </row>
-    <row r="45" spans="1:3">
+    <row r="45" spans="1:2">
       <c r="A45" s="2">
         <v>43677</v>
       </c>
       <c r="B45">
-        <v>0.6059719699999999</v>
-      </c>
-      <c r="C45">
         <v>-0.007489886432798243</v>
       </c>
     </row>
-    <row r="46" spans="1:3">
+    <row r="46" spans="1:2">
       <c r="A46" s="2">
         <v>43708</v>
       </c>
       <c r="B46">
-        <v>0.61158574</v>
-      </c>
-      <c r="C46">
         <v>0.00349555914104771</v>
       </c>
     </row>
-    <row r="47" spans="1:3">
+    <row r="47" spans="1:2">
       <c r="A47" s="2">
         <v>43738</v>
       </c>
       <c r="B47">
-        <v>0.6226000899999999</v>
-      </c>
-      <c r="C47">
         <v>0.006834479684586947</v>
       </c>
     </row>
-    <row r="48" spans="1:3">
+    <row r="48" spans="1:2">
       <c r="A48" s="2">
         <v>43769</v>
       </c>
       <c r="B48">
-        <v>0.6548392599999999</v>
-      </c>
-      <c r="C48">
         <v>0.01986883286811603</v>
       </c>
     </row>
-    <row r="49" spans="1:3">
+    <row r="49" spans="1:2">
       <c r="A49" s="2">
         <v>43799</v>
       </c>
       <c r="B49">
-        <v>0.6602639800000001</v>
-      </c>
-      <c r="C49">
         <v>0.003278094816290489</v>
       </c>
     </row>
-    <row r="50" spans="1:3">
+    <row r="50" spans="1:2">
       <c r="A50" s="2">
         <v>43830</v>
       </c>
       <c r="B50">
-        <v>0.68388852</v>
-      </c>
-      <c r="C50">
         <v>0.01422938778687466</v>
       </c>
     </row>
-    <row r="51" spans="1:3">
+    <row r="51" spans="1:2">
       <c r="A51" s="2">
         <v>43861</v>
       </c>
       <c r="B51">
-        <v>0.70041252</v>
-      </c>
-      <c r="C51">
         <v>0.009813001159957979</v>
       </c>
     </row>
-    <row r="52" spans="1:3">
+    <row r="52" spans="1:2">
       <c r="A52" s="2">
         <v>43890</v>
       </c>
       <c r="B52">
-        <v>0.6777855500000001</v>
-      </c>
-      <c r="C52">
         <v>-0.01330675335182774</v>
       </c>
     </row>
-    <row r="53" spans="1:3">
+    <row r="53" spans="1:2">
       <c r="A53" s="2">
         <v>43921</v>
       </c>
       <c r="B53">
-        <v>0.6530654300000001</v>
-      </c>
-      <c r="C53">
         <v>-0.01473377810412069</v>
       </c>
     </row>
-    <row r="54" spans="1:3">
+    <row r="54" spans="1:2">
       <c r="A54" s="2">
         <v>43951</v>
       </c>
       <c r="B54">
-        <v>0.6815535800000001</v>
-      </c>
-      <c r="C54">
         <v>0.01723352837884939</v>
       </c>
     </row>
-    <row r="55" spans="1:3">
+    <row r="55" spans="1:2">
       <c r="A55" s="2">
         <v>43982</v>
       </c>
       <c r="B55">
-        <v>0.6837196299999999</v>
-      </c>
-      <c r="C55">
         <v>0.001288124283259418</v>
       </c>
     </row>
-    <row r="56" spans="1:3">
+    <row r="56" spans="1:2">
       <c r="A56" s="2">
         <v>44012</v>
       </c>
       <c r="B56">
-        <v>0.6883355600000001</v>
-      </c>
-      <c r="C56">
         <v>0.002741507503835505</v>
       </c>
     </row>
-    <row r="57" spans="1:3">
+    <row r="57" spans="1:2">
       <c r="A57" s="2">
         <v>44043</v>
       </c>
       <c r="B57">
-        <v>0.7210479599999999</v>
-      </c>
-      <c r="C57">
         <v>0.01937553219574428</v>
       </c>
     </row>
-    <row r="58" spans="1:3">
+    <row r="58" spans="1:2">
       <c r="A58" s="2">
         <v>44074</v>
       </c>
       <c r="B58">
-        <v>0.72045124</v>
-      </c>
-      <c r="C58">
         <v>-0.0003467189839381213</v>
       </c>
     </row>
-    <row r="59" spans="1:3">
+    <row r="59" spans="1:2">
       <c r="A59" s="2">
         <v>44104</v>
       </c>
       <c r="B59">
-        <v>0.69331579</v>
-      </c>
-      <c r="C59">
         <v>-0.01577228657756091</v>
       </c>
     </row>
-    <row r="60" spans="1:3">
+    <row r="60" spans="1:2">
       <c r="A60" s="2">
         <v>44135</v>
       </c>
       <c r="B60">
-        <v>0.69782762</v>
-      </c>
-      <c r="C60">
         <v>0.002664494140221851</v>
       </c>
     </row>
-    <row r="61" spans="1:3">
+    <row r="61" spans="1:2">
       <c r="A61" s="2">
         <v>44165</v>
       </c>
       <c r="B61">
-        <v>0.7152777100000001</v>
-      </c>
-      <c r="C61">
-        <v>0.01027789264024337</v>
+        <v>0.00663381833781207</v>
       </c>
     </row>
   </sheetData>
